--- a/Project_Backend-1/API_Endpoints_Spec.xlsx
+++ b/Project_Backend-1/API_Endpoints_Spec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunya/Documents/Genspark-Training/Project_Backend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587CD45-ED68-8944-9353-48DF8B30E536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A29F4E-78A2-514A-AD72-D75A02895CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="1780" windowWidth="22740" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,10 @@
     <t>{ "id": 1, "status": "pending" }</t>
   </si>
   <si>
-    <t>{ "status": "shipped" }</t>
-  </si>
-  <si>
     <t>404 Not Found: Order not found</t>
+  </si>
+  <si>
+    <t>{"message": "Order status updated"}</t>
   </si>
 </sst>
 </file>
@@ -243,10 +243,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -778,10 +778,10 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
